--- a/Production.xlsx
+++ b/Production.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.nawrocki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kurs\Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1763F8-DA71-476E-945B-0F5AB2265217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DFDBC0-135D-413A-A129-B7CDCAB5EEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>luminaire_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>luminaire_code</t>
   </si>
@@ -47,18 +44,12 @@
     <t>order_id</t>
   </si>
   <si>
-    <t>client</t>
-  </si>
-  <si>
     <t>agent</t>
   </si>
   <si>
     <t>delivery_date</t>
   </si>
   <si>
-    <t>quantity</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -89,13 +80,16 @@
     <t>pcs</t>
   </si>
   <si>
-    <t>inut</t>
-  </si>
-  <si>
     <t>additional_information</t>
   </si>
   <si>
     <t>Barcode</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
 </sst>
 </file>
@@ -148,6 +142,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>478162</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>18934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C211E19A-BDF8-590F-960C-856FE551EDC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257735" y="437029"/>
+          <a:ext cx="5677692" cy="7201905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,90 +456,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28461289-1E47-4E07-9B5A-A3075CB68ED9}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,9 +545,6 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -520,32 +557,33 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
